--- a/platform/service-boss/src/main/resources/download/sale_num.xlsx
+++ b/platform/service-boss/src/main/resources/download/sale_num.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fgh\IdeaProjects\mall-shop\platform\service-boss\src\main\resources\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6552A-8849-43EE-AB76-471F41E6949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83DD77-F6A7-4876-B70C-E0D464E575E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>spu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>sku_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spu_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -373,37 +365,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
